--- a/Diagrama de Gantt y logotipos/Diagrama de Gantt.xlsx
+++ b/Diagrama de Gantt y logotipos/Diagrama de Gantt.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Antonio\Otros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Antonio\Curso DAM\2 DAM\TFG\Diagrama de Gantt y logotipos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F7E35B-99BA-412C-92EA-9F8F6A885966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A4D162-ABFB-4C51-95C4-0196F0EBC7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC526FFE-4E91-42D0-A5DB-EAF3E58A596A}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{EC526FFE-4E91-42D0-A5DB-EAF3E58A596A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -198,29 +198,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +553,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -592,52 +583,52 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>45727</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>45730</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>45731</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>45732</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>45732</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>45732</v>
       </c>
       <c r="F4" s="3"/>
@@ -646,52 +637,52 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>45733</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="5">
         <v>45734</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="5">
         <v>45735</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="5">
         <v>45737</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="5">
         <v>45737</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="5">
         <v>45737</v>
       </c>
       <c r="F7" s="1"/>
@@ -700,52 +691,52 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="5">
         <v>45738</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
         <v>45740</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="5">
         <v>45741</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="5">
         <v>45751</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="5">
         <v>45748</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="5">
         <v>45751</v>
       </c>
       <c r="F10" s="1"/>
@@ -754,52 +745,52 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="5">
         <v>45748</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="5">
         <v>45751</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="5">
         <v>45751</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="5">
         <v>45751</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="5">
         <v>45752</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>45767</v>
       </c>
     </row>
@@ -807,52 +798,52 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="5">
         <v>45760</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="5">
         <v>45761</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="5">
         <v>45762</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="5">
         <v>45762</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="5">
         <v>45763</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="5">
         <v>45763</v>
       </c>
       <c r="F16" s="1"/>
@@ -861,34 +852,34 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="5">
         <v>45764</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="5">
         <v>45771</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="5">
         <v>45772</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="5">
         <v>45772</v>
       </c>
       <c r="F18" s="1"/>
@@ -897,52 +888,52 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="5">
         <v>45775</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="5">
         <v>45779</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="5">
         <v>45777</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="5">
         <v>45781</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="5">
         <v>45773</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>45788</v>
       </c>
     </row>
@@ -950,50 +941,50 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>45782</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>45788</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>45782</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <v>45788</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>45791</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>45791</v>
       </c>
     </row>
